--- a/Physics-Test.xlsx
+++ b/Physics-Test.xlsx
@@ -2,41 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fae841a71cd6f67/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fae841a71cd6f67/Documents/GitHub/Excel_to_outlook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{2D50DEA8-C4A2-4697-A8C6-FAC362F9F70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86D520CA-5E8A-43E4-9BF5-48CBF564F2B3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F487037A46A95D83607B1D0500B98B3C1CCA8EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF130DE-3F21-43EF-B596-0F6A1002EAD2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C54AB77E-60BA-4D84-8C5C-626274216452}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID numbers</t>
   </si>
@@ -65,9 +49,17 @@
     <t>an953660@ucf.edu</t>
   </si>
   <si>
+    <t>3, 5</t>
+  </si>
+  <si>
     <t>m1</t>
   </si>
   <si>
+    <t xml:space="preserve">m3  
+m5  
+</t>
+  </si>
+  <si>
     <t>m2</t>
   </si>
   <si>
@@ -84,9 +76,6 @@
   </si>
   <si>
     <t>m7</t>
-  </si>
-  <si>
-    <t>3, 5</t>
   </si>
 </sst>
 </file>
@@ -129,11 +118,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBCA4EE-E7A8-435B-B275-6E88A50CA4B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5652828</v>
       </c>
@@ -515,45 +507,48 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CEC3696D-1007-4B67-8BE7-D2C1FEB0344E}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Physics-Test.xlsx
+++ b/Physics-Test.xlsx
@@ -1,107 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fae841a71cd6f67/Documents/GitHub/Excel_to_outlook/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F487037A46A95D83607B1D0500B98B3C1CCA8EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF130DE-3F21-43EF-B596-0F6A1002EAD2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>ID numbers</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Q wrong</t>
-  </si>
-  <si>
-    <t>Messages for each question</t>
-  </si>
-  <si>
-    <t>List of message</t>
-  </si>
-  <si>
-    <t>email the list of messages</t>
-  </si>
-  <si>
-    <t>Ananya</t>
-  </si>
-  <si>
-    <t>an953660@ucf.edu</t>
-  </si>
-  <si>
-    <t>3, 5</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m3  
-m5  
-</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,26 +55,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -460,95 +453,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="85.33203125" customWidth="1"/>
+    <col width="27.109375" customWidth="1" min="5" max="5"/>
+    <col width="85.33203125" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID numbers</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Names</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Q wrong</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Messages for each question</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>List of message</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>email the list of messages</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="43.2" customHeight="1">
+      <c r="A2" t="n">
         <v>5652828</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>17</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ananya</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>an953660@ucf.edu</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>m1</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3  
+m5  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>m4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>m5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>m6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>m7</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Physics-Test.xlsx
+++ b/Physics-Test.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -540,9 +540,26 @@
       </c>
     </row>
     <row r="3">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>aa000146@ucf.edu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2, 5</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>m2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m2  
+m5  
+</t>
         </is>
       </c>
     </row>
@@ -584,6 +601,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Physics-Test.xlsx
+++ b/Physics-Test.xlsx
@@ -1,41 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fae841a71cd6f67/Documents/GitHub/Excel_to_outlook/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B563322DA46A9F932EC5ADD0503AC071E6D4943E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527E7587-7CA4-4B7F-90D8-7DE07F1A596D}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>ID numbers</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Q wrong</t>
+  </si>
+  <si>
+    <t>Messages for each question</t>
+  </si>
+  <si>
+    <t>List of message</t>
+  </si>
+  <si>
+    <t>email the list of messages</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>an953660@ucf.edu</t>
+  </si>
+  <si>
+    <t>3, 5</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3  
+m5  
+</t>
+  </si>
+  <si>
+    <t>aa000146@ucf.edu</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2  
+m5  
+</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,85 +132,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,155 +471,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="27.109375" customWidth="1" min="5" max="5"/>
-    <col width="85.33203125" customWidth="1" min="6" max="6"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="85.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID numbers</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Names</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Q wrong</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Messages for each question</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>List of message</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>email the list of messages</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="43.2" customHeight="1">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>5652828</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ananya</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>an953660@ucf.edu</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>m1</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m3  
-m5  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>aa000146@ucf.edu</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2, 5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m2  
-m5  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>m4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>m5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>m6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>m7</t>
-        </is>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
